--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -1,26 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A924AB6-FEAC-4099-BE4E-0AE17161FFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>T.I.G</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>CONDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK </t>
+  </si>
+  <si>
+    <t>UNIDADES</t>
+  </si>
+  <si>
+    <t>COSTO X UNIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTO NETO </t>
+  </si>
+  <si>
+    <t>PRECIO BASE X UNIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO BASE NETO</t>
+  </si>
+  <si>
+    <t>ASIENTO GT</t>
+  </si>
+  <si>
+    <t>TALLA 144mm</t>
+  </si>
+  <si>
+    <t>SEMINUEVO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +84,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,18 +140,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03DF7B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -68,8 +247,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>867</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>20448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>965649</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="6 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6B068B-5DD8-41F4-B543-840CB18B0341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1048617" y="20448"/>
+          <a:ext cx="964782" cy="741554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +319,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +331,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +378,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +430,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +598,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81B1B-A4A1-4877-B957-52B82AED956A}">
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="26" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43939</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>380</v>
+      </c>
+      <c r="I2" s="8">
+        <f>H2*G2</f>
+        <v>380</v>
+      </c>
+      <c r="J2" s="8">
+        <v>380</v>
+      </c>
+      <c r="K2" s="8">
+        <f>J2*G2</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12">
+        <f>SUM(I2)</f>
+        <v>380</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12">
+        <f>SUM(K2)</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A924AB6-FEAC-4099-BE4E-0AE17161FFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE55B9-CC59-46E0-B33A-30F4C52AE58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>T.I.G</t>
   </si>
@@ -60,13 +60,7 @@
     <t>PRECIO BASE NETO</t>
   </si>
   <si>
-    <t>ASIENTO GT</t>
-  </si>
-  <si>
-    <t>TALLA 144mm</t>
-  </si>
-  <si>
-    <t>SEMINUEVO</t>
+    <t>FECHA DE REGISTRO</t>
   </si>
 </sst>
 </file>
@@ -76,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +88,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -121,18 +122,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor rgb="FF03DF7B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,61 +169,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -251,23 +230,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>867</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1060975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20448</xdr:rowOff>
+      <xdr:rowOff>26830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>965649</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1684822</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="6 Imagen">
+        <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6B068B-5DD8-41F4-B543-840CB18B0341}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447170EC-F7C3-4326-9F9A-2FA3A1B725B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -289,8 +268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1048617" y="20448"/>
-          <a:ext cx="964782" cy="741554"/>
+          <a:off x="1060975" y="26830"/>
+          <a:ext cx="623847" cy="463027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,36 +578,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81B1B-A4A1-4877-B957-52B82AED956A}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="25" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -644,159 +623,138 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43939</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>380</v>
-      </c>
-      <c r="I2" s="8">
-        <f>H2*G2</f>
-        <v>380</v>
-      </c>
-      <c r="J2" s="8">
-        <v>380</v>
-      </c>
-      <c r="K2" s="8">
-        <f>J2*G2</f>
-        <v>380</v>
+    <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <f t="shared" ref="I2" si="0">H2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <f t="shared" ref="K2" si="1">J2*G2</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12">
+    <row r="3" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9">
         <f>SUM(I2)</f>
-        <v>380</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9">
         <f>SUM(K2)</f>
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE55B9-CC59-46E0-B33A-30F4C52AE58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4970B-49A2-498C-9DB7-8ABDE6406893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="PacksVentas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>T.I.G</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t>FECHA DE REGISTRO</t>
+  </si>
+  <si>
+    <t>Asiento Equis</t>
+  </si>
+  <si>
+    <t>Asiento para bici talla M</t>
+  </si>
+  <si>
+    <t>23  julio 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Pack shimano</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>$890</t>
   </si>
 </sst>
 </file>
@@ -206,7 +230,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -282,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -584,13 +608,13 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="25" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="25" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -623,137 +647,162 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2" si="0">H2*G2</f>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3" si="0">H3*G3</f>
         <v>0</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
-        <f t="shared" ref="K2" si="1">J2*G2</f>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3" si="1">J3*G3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9">
-        <f>SUM(I2)</f>
+    <row r="4" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9">
+        <f>SUM(I3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9">
-        <f>SUM(K2)</f>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9">
+        <f>SUM(K3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>T.I.G</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>$890</t>
+  </si>
+  <si>
+    <t>Packs</t>
+  </si>
+  <si>
+    <t>dasjalsa</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -610,8 +625,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="25" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="false"/>
+    <col min="3" max="25" customWidth="true" width="15.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -673,45 +688,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3" si="0">H3*G3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3" si="1">J3*G3</f>
-        <v>0</v>
+    <row r="3">
+      <c r="A3" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9">
-        <f>SUM(I3)</f>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4" si="0">H4*G4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9">
-        <f>SUM(K3)</f>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4" si="1">J4*G4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9">
+        <f>SUM(I4)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9">
+        <f>SUM(K4)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -617,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81B1B-A4A1-4877-B957-52B82AED956A}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -625,8 +625,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="false"/>
-    <col min="3" max="25" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="25" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -688,70 +688,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="5">
-        <v>22</v>
+    <row r="3" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3" si="0">H3*G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3" si="1">J3*G3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
-        <f t="shared" ref="I4" si="0">H4*G4</f>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9">
+        <f>SUM(I3)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
-        <f t="shared" ref="K4" si="1">J4*G4</f>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9">
+        <f>SUM(K3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9">
-        <f>SUM(I4)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9">
-        <f>SUM(K4)</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="5" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -762,7 +737,7 @@
     <row r="13" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -842,7 +817,6 @@
     <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4970B-49A2-498C-9DB7-8ABDE6406893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E5258-1FDA-48FF-8039-DC71C0C5527B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
   </bookViews>
@@ -17,21 +17,15 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>T.I.G</t>
   </si>
@@ -61,45 +55,6 @@
   </si>
   <si>
     <t>FECHA DE REGISTRO</t>
-  </si>
-  <si>
-    <t>Asiento Equis</t>
-  </si>
-  <si>
-    <t>Asiento para bici talla M</t>
-  </si>
-  <si>
-    <t>23  julio 20</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>Pack shimano</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>$890</t>
-  </si>
-  <si>
-    <t>Packs</t>
-  </si>
-  <si>
-    <t>dasjalsa</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>$</t>
   </si>
 </sst>
 </file>
@@ -213,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -225,15 +180,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -617,16 +563,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81B1B-A4A1-4877-B957-52B82AED956A}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J2" activeCellId="10" sqref="A2 K2 B2 C2 D2 E2 F2 G2 H2 I2 J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="25" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="25" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -663,69 +609,26 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3" si="0">H3*G3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3" si="1">J3*G3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9">
-        <f>SUM(I3)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9">
-        <f>SUM(K3)</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="3" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -737,7 +640,7 @@
     <row r="13" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>T.I.G</t>
   </si>
@@ -55,6 +55,36 @@
   </si>
   <si>
     <t>FECHA DE REGISTRO</t>
+  </si>
+  <si>
+    <t>paqqeuaasf</t>
+  </si>
+  <si>
+    <t>chingon</t>
+  </si>
+  <si>
+    <t>30  julio 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>60000.0</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -64,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +125,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +228,18 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -163,12 +275,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -187,6 +317,42 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81B1B-A4A1-4877-B957-52B82AED956A}">
-  <dimension ref="A1:Y95"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J2" activeCellId="10" sqref="A2 K2 B2 C2 D2 E2 F2 G2 H2 I2 J2"/>
@@ -571,8 +737,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="25" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="25" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -608,26 +774,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="e">
+    <row r="2" ht="28.8" customHeight="true">
+      <c r="A2" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n" s="17">
+        <v>60000.0</v>
+      </c>
+      <c r="J2" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="K2" t="n" s="18">
+        <v>120000.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="e">
+      <c r="J3" s="5"/>
+      <c r="K3" s="6" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E5258-1FDA-48FF-8039-DC71C0C5527B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D078753-B32A-4D95-8C23-A1A011A46046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>T.I.G</t>
   </si>
@@ -81,10 +81,46 @@
     <t>10000</t>
   </si>
   <si>
-    <t>60000.0</t>
-  </si>
-  <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>Shimano</t>
+  </si>
+  <si>
+    <t>Equisde</t>
+  </si>
+  <si>
+    <t>1.2470588235294118</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>10600</t>
+  </si>
+  <si>
+    <t>Freno de Disco</t>
+  </si>
+  <si>
+    <t>Freno para frenar</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>1.09375</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>48000.0</t>
+  </si>
+  <si>
+    <t>10500</t>
   </si>
 </sst>
 </file>
@@ -94,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +162,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
       <color indexed="8"/>
@@ -198,7 +378,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,17 +409,27 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="EEEEEE"/>
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -276,6 +466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -298,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,40 +523,112 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +1009,7 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" activeCellId="10" sqref="A2 K2 B2 C2 D2 E2 F2 G2 H2 I2 J2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,62 +1051,130 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="28.8" customHeight="true">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:11" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="11">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="12">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="13">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="14">
+      <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="n" s="17">
-        <v>60000.0</v>
-      </c>
-      <c r="J2" t="s" s="16">
+      <c r="I2" s="16">
+        <v>60000</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="17">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="n" s="18">
-        <v>120000.0</v>
+      <c r="B3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="27">
+        <v>42500</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="28">
+        <v>53000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+    <row r="4" ht="28.8" customHeight="true">
+      <c r="A4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="31">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="32">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="33">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s" s="36">
+        <v>29</v>
+      </c>
+      <c r="I4" t="n" s="39">
+        <v>48000.0</v>
+      </c>
+      <c r="J4" t="s" s="38">
+        <v>31</v>
+      </c>
+      <c r="K4" t="n" s="40">
+        <v>52500.0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" t="n" s="41">
+        <f>SUM(I2:I3)</f>
+        <v>102500.0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" t="n" s="42">
+        <f>SUM(K2:K3)</f>
+        <v>173000.0</v>
+      </c>
+    </row>
     <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>T.I.G</t>
   </si>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>10500</t>
+  </si>
+  <si>
+    <t>BICI AZUL</t>
+  </si>
+  <si>
+    <t>UN FRENO</t>
+  </si>
+  <si>
+    <t>31  julio 20</t>
+  </si>
+  <si>
+    <t>1.5447154471544715</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>190</t>
   </si>
 </sst>
 </file>
@@ -130,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +316,90 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -503,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,6 +737,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81B1B-A4A1-4877-B957-52B82AED956A}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1165,14 +1315,14 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" t="n" s="41">
-        <f>SUM(I2:I3)</f>
-        <v>102500.0</v>
+      <c r="I5" t="n" s="55">
+        <f>SUM(I2:I4)</f>
+        <v>150500.0</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" t="n" s="42">
-        <f>SUM(K2:K3)</f>
-        <v>173000.0</v>
+      <c r="K5" t="n" s="56">
+        <f>SUM(K2:K4)</f>
+        <v>225500.0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1335,7 @@
     <row r="13" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1414,6 @@
     <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D078753-B32A-4D95-8C23-A1A011A46046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61481A-1600-4CD7-919C-24A884338BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
   </bookViews>
   <sheets>
     <sheet name="PacksVentas" sheetId="1" r:id="rId1"/>
+    <sheet name="Bicicleta Nueva" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>T.I.G</t>
   </si>
@@ -117,44 +118,29 @@
     <t>9600</t>
   </si>
   <si>
-    <t>48000.0</t>
-  </si>
-  <si>
     <t>10500</t>
   </si>
   <si>
-    <t>BICI AZUL</t>
-  </si>
-  <si>
-    <t>UN FRENO</t>
-  </si>
-  <si>
-    <t>31  julio 20</t>
-  </si>
-  <si>
-    <t>1.5447154471544715</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>190</t>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>CONDICION</t>
+  </si>
+  <si>
+    <t>PACK</t>
+  </si>
+  <si>
+    <t>COSTO NETO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,175 +304,217 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,22 +550,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="22B473"/>
+        <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -589,29 +607,26 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -628,9 +643,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,88 +709,109 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,16 +1189,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81B1B-A4A1-4877-B957-52B82AED956A}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="25" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="25" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1201,112 +1234,112 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>60000</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>120000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>42500</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <v>53000</v>
       </c>
     </row>
-    <row r="4" ht="28.8" customHeight="true">
-      <c r="A4" t="s" s="29">
+    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="30">
+      <c r="B4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s" s="31">
+      <c r="C4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="32">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="33">
+      <c r="E4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s" s="34">
+      <c r="F4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s" s="35">
+      <c r="G4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s" s="36">
+      <c r="H4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="n" s="39">
-        <v>48000.0</v>
-      </c>
-      <c r="J4" t="s" s="38">
-        <v>31</v>
-      </c>
-      <c r="K4" t="n" s="40">
-        <v>52500.0</v>
+      <c r="I4" s="37">
+        <v>48000</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="38">
+        <v>52500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1315,14 +1348,14 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" t="n" s="55">
+      <c r="I5" s="39">
         <f>SUM(I2:I4)</f>
-        <v>150500.0</v>
+        <v>150500</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" t="n" s="56">
+      <c r="K5" s="40">
         <f>SUM(K2:K4)</f>
-        <v>225500.0</v>
+        <v>225500</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1368,7 @@
     <row r="13" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1418,4 +1451,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -15,10 +15,12 @@
   <sheets>
     <sheet name="PacksVentas" sheetId="1" r:id="rId1"/>
     <sheet name="Bicicleta Nueva" sheetId="2" r:id="rId2"/>
+    <sheet name="Bicicleta Azul" r:id="rId7" sheetId="3"/>
+    <sheet name="Bicicleta Morada" r:id="rId8" sheetId="4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>T.I.G</t>
   </si>
@@ -134,13 +136,35 @@
   </si>
   <si>
     <t>COSTO NETO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Freno pa frenar</t>
+  </si>
+  <si>
+    <t>03  agosto 20</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>850.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="141" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,8 +537,488 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,8 +1058,18 @@
         <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -621,12 +1135,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -812,6 +1344,246 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81B1B-A4A1-4877-B957-52B82AED956A}">
-  <dimension ref="A1:Y94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1197,8 +1969,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="25" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="25" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1348,14 +2120,14 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="39">
+      <c r="I5" s="39" t="n">
         <f>SUM(I2:I4)</f>
-        <v>150500</v>
+        <v>150500.0</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="40">
+      <c r="K5" s="40" t="n">
         <f>SUM(K2:K4)</f>
-        <v>225500</v>
+        <v>225500.0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1463,16 +2235,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1526,4 +2298,167 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="64"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="94"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="129">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="130">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="131">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s" s="132">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="133">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s" s="134">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s" s="135">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s" s="136">
+        <v>14</v>
+      </c>
+      <c r="I2" t="n" s="139">
+        <v>100.0</v>
+      </c>
+      <c r="J2" t="s" s="138">
+        <v>39</v>
+      </c>
+      <c r="K2" t="n" s="140">
+        <v>85000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="97"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="118"/>
+      <c r="I3" t="n" s="141">
+        <f>SUM(I2:I1)</f>
+        <v>100.0</v>
+      </c>
+      <c r="J3" s="124"/>
+      <c r="K3" t="n" s="142">
+        <f>SUM(K2:K1)</f>
+        <v>85000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61481A-1600-4CD7-919C-24A884338BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1567DB09-F9B6-43BD-A6A4-D67CD1A809A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
   </bookViews>
   <sheets>
     <sheet name="PacksVentas" sheetId="1" r:id="rId1"/>
     <sheet name="Bicicleta Nueva" sheetId="2" r:id="rId2"/>
-    <sheet name="Bicicleta Azul" r:id="rId7" sheetId="3"/>
-    <sheet name="Bicicleta Morada" r:id="rId8" sheetId="4"/>
+    <sheet name="Bicicleta Azul" sheetId="3" r:id="rId3"/>
+    <sheet name="Bicicleta Morada" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>T.I.G</t>
   </si>
@@ -156,7 +164,61 @@
     <t>100</t>
   </si>
   <si>
+    <t>manubrio</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>Seminuevo</t>
+  </si>
+  <si>
+    <t>Bicicleta Azul</t>
+  </si>
+  <si>
+    <t>10.032520325203253</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>cning[on</t>
+  </si>
+  <si>
+    <t>Bicicleta Morada</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>asiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bkbkn</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
     <t>100.0</t>
+  </si>
+  <si>
+    <t>900</t>
   </si>
 </sst>
 </file>
@@ -164,7 +226,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="141" x14ac:knownFonts="1">
+  <fonts count="158" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,232 +600,334 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1060,16 +1224,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
+        <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1136,6 +1300,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -1158,7 +1337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1346,250 +1525,301 @@
     <xf numFmtId="0" fontId="60" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="6" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1665,7 +1895,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1967,13 +2197,13 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
     <col min="3" max="25" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2006,7 +2236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2271,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
@@ -2076,7 +2306,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2341,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2130,95 +2360,95 @@
         <v>225500.0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2230,24 +2460,25 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" customWidth="true" width="20.9296875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.1328125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.46484375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.19921875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.86328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.53125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="19.0" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
@@ -2282,7 +2513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="B2" s="43"/>
       <c r="C2" s="45"/>
@@ -2301,164 +2532,275 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="94"/>
+    <row r="2" ht="28.5" customHeight="true">
+      <c r="A2" t="s" s="118">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="119">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="120">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s" s="121">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s" s="122">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s" s="123">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s" s="124">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="125">
+        <v>48</v>
+      </c>
+      <c r="I2" t="n" s="128">
+        <v>246.0</v>
+      </c>
+      <c r="J2" t="s" s="127">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n" s="129">
+        <v>2468.0</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" customHeight="true">
+      <c r="A3" t="s" s="146">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s" s="147">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s" s="148">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="149">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="150">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s" s="151">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s" s="152">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="153">
+        <v>41</v>
+      </c>
+      <c r="I3" t="n" s="156">
+        <v>100.0</v>
+      </c>
+      <c r="J3" t="s" s="155">
+        <v>60</v>
+      </c>
+      <c r="K3" t="n" s="157">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A4" s="63"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="77"/>
+      <c r="I4" t="n" s="158">
+        <f>SUM(I2:I2)</f>
+        <v>246.0</v>
+      </c>
+      <c r="J4" s="81"/>
+      <c r="K4" t="n" s="159">
+        <f>SUM(K2:K2)</f>
+        <v>2468.0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="125" t="s">
+      <c r="J1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="129">
+    <row r="2" spans="1:11" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A2" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s" s="130">
+      <c r="B2" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s" s="131">
+      <c r="C2" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s" s="132">
+      <c r="D2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="133">
+      <c r="E2" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s" s="134">
+      <c r="F2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s" s="135">
+      <c r="G2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s" s="136">
+      <c r="H2" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="n" s="139">
+      <c r="I2" s="114">
+        <v>100</v>
+      </c>
+      <c r="J2" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="115">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" customHeight="true">
+      <c r="A3" t="s" s="132">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s" s="133">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s" s="134">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="135">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="136">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s" s="137">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="138">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="139">
+        <v>53</v>
+      </c>
+      <c r="I3" t="n" s="142">
+        <v>1000.0</v>
+      </c>
+      <c r="J3" t="s" s="141">
+        <v>55</v>
+      </c>
+      <c r="K3" t="n" s="143">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="99"/>
+      <c r="I4" t="n" s="144">
+        <f>SUM(I2:I2)</f>
         <v>100.0</v>
       </c>
-      <c r="J2" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="K2" t="n" s="140">
-        <v>85000.0</v>
-      </c>
-    </row>
-    <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="97"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="118"/>
-      <c r="I3" t="n" s="141">
-        <f>SUM(I2:I1)</f>
-        <v>100.0</v>
-      </c>
-      <c r="J3" s="124"/>
-      <c r="K3" t="n" s="142">
-        <f>SUM(K2:K1)</f>
+      <c r="J4" s="102"/>
+      <c r="K4" t="n" s="145">
+        <f>SUM(K2:K2)</f>
         <v>85000.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Bicicleta Nueva" sheetId="2" r:id="rId2"/>
     <sheet name="Bicicleta Azul" sheetId="3" r:id="rId3"/>
     <sheet name="Bicicleta Morada" sheetId="4" r:id="rId4"/>
+    <sheet name="BICI AMARILLA" r:id="rId9" sheetId="5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>T.I.G</t>
   </si>
@@ -219,6 +220,24 @@
   </si>
   <si>
     <t>900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDALES </t>
+  </si>
+  <si>
+    <t>AMARILLA</t>
+  </si>
+  <si>
+    <t>04  agosto 20</t>
+  </si>
+  <si>
+    <t>BICI AMARILLA</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2300</t>
   </si>
 </sst>
 </file>
@@ -226,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="158" x14ac:knownFonts="1">
+  <fonts count="205" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +947,288 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1337,7 +1638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1814,6 +2115,147 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="157" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="6" borderId="9" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2803,4 +3245,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="162" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="171" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="186" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="193">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s" s="194">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s" s="195">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s" s="196">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="197">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s" s="198">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s" s="199">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="200">
+        <v>53</v>
+      </c>
+      <c r="I2" t="n" s="203">
+        <v>1000.0</v>
+      </c>
+      <c r="J2" t="s" s="202">
+        <v>66</v>
+      </c>
+      <c r="K2" t="n" s="204">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="161"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="182"/>
+      <c r="I3" t="n" s="205">
+        <f>SUM(I2:I1)</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J3" s="188"/>
+      <c r="K3" t="n" s="206">
+        <f>SUM(K2:K1)</f>
+        <v>2300.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -14,10 +14,12 @@
   </bookViews>
   <sheets>
     <sheet name="packsDeVentas" sheetId="6" r:id="rId1"/>
+    <sheet name="BBICICLETA ROJA" r:id="rId5" sheetId="7"/>
+    <sheet name="PACK 1" r:id="rId6" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,9 +34,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>FECHA DE REGISTRO</t>
+  </si>
+  <si>
+    <t>CONDICION</t>
+  </si>
+  <si>
+    <t>PACK</t>
+  </si>
+  <si>
+    <t>T.I.G</t>
+  </si>
+  <si>
+    <t>UNIDADES</t>
+  </si>
+  <si>
+    <t>COSTO X UNIDAD</t>
+  </si>
+  <si>
+    <t>COSTO NETO</t>
+  </si>
+  <si>
+    <t>PRECIO BASE X UNIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO BASE NETO</t>
+  </si>
+  <si>
+    <t>PEDALES</t>
+  </si>
+  <si>
+    <t>GAJAS</t>
+  </si>
+  <si>
+    <t>04  agosto 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>BBICICLETA ROJA</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="81" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +113,516 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -59,12 +630,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,4 +1221,167 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="34">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="35">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="36">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="37">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="38">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="39">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="40">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="41">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n" s="44">
+        <v>500.0</v>
+      </c>
+      <c r="J2" t="s" s="43">
+        <v>20</v>
+      </c>
+      <c r="K2" t="n" s="45">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="23"/>
+      <c r="I3" t="n" s="46">
+        <f>SUM(I2:I1)</f>
+        <v>500.0</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" t="n" s="47">
+        <f>SUM(K2:K1)</f>
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t xml:space="preserve">     </t>
   </si>
@@ -146,13 +146,43 @@
   </si>
   <si>
     <t>Bici Azul</t>
+  </si>
+  <si>
+    <t>Manubrio Mamalon</t>
+  </si>
+  <si>
+    <t>Manubrio azul</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>Frenos Verdes</t>
+  </si>
+  <si>
+    <t>Frenos para frenar</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1200.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="184" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,#0.00"/>
+  </numFmts>
+  <fonts count="250" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,8 +1288,404 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,8 +1702,23 @@
         <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1300,11 +1741,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1853,6 +2312,204 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="183" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="195" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="196" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="197" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="198" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="199" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="200" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="201" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="202" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="203" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="204" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="205" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="206" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="207" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="208" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="209" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="210" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="211" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="212" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="213" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="214" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="215" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="216" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="228" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="229" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="230" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="231" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="232" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="233" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="234" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="235" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="236" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="237" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="238" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="239" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="240" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="241" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="242" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="243" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="244" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="245" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="246" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="247" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="248" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="249" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2400,32 +3057,32 @@
       <c r="H5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="151">
+      <c r="I5" s="151" t="n">
         <f>SUM(I2:I3)</f>
-        <v>8000</v>
+        <v>8000.0</v>
       </c>
       <c r="J5" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="156">
+      <c r="K5" s="156" t="n">
         <f>SUM(U2:U3)</f>
-        <v>2499.9999999999991</v>
-      </c>
-      <c r="M5" s="152">
+        <v>2499.999999999999</v>
+      </c>
+      <c r="M5" s="152" t="n">
         <f>SUM(M2:M3)</f>
-        <v>12180</v>
-      </c>
-      <c r="O5" s="153">
+        <v>12180.0</v>
+      </c>
+      <c r="O5" s="153" t="n">
         <f>SUM(O2:O3)</f>
-        <v>14287</v>
-      </c>
-      <c r="Q5" s="154">
+        <v>14287.0</v>
+      </c>
+      <c r="Q5" s="154" t="n">
         <f>SUM(Q2:Q3)</f>
         <v>1861.9999999999998</v>
       </c>
-      <c r="S5" s="155">
+      <c r="S5" s="155" t="n">
         <f>SUM(S2:S3)</f>
-        <v>1680</v>
+        <v>1680.0</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +3193,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
@@ -2544,12 +3201,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -2617,7 +3274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="157" t="s">
         <v>34</v>
       </c>
@@ -2682,46 +3339,179 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="178">
-        <f>SUM(I1:I2)</f>
-        <v>500</v>
-      </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="183">
-        <f>SUM(U1:U2)</f>
-        <v>400</v>
-      </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="179">
-        <f>SUM(M1:M2)</f>
-        <v>1044</v>
-      </c>
-      <c r="N3" s="96"/>
-      <c r="O3" s="180">
-        <f>SUM(O1:O2)</f>
-        <v>1240.5999999999999</v>
-      </c>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="181">
-        <f>SUM(Q1:Q2)</f>
+    <row r="3" ht="28.8" customHeight="true">
+      <c r="A3" t="s" s="184">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s" s="185">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s" s="186">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s" s="187">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="188">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n" s="195">
+        <v>1.5</v>
+      </c>
+      <c r="G3" t="n" s="194">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="196">
+        <v>400.0</v>
+      </c>
+      <c r="I3" t="n" s="197">
+        <v>400.0</v>
+      </c>
+      <c r="J3" t="n" s="198">
+        <v>600.0</v>
+      </c>
+      <c r="K3" t="n" s="199">
+        <v>600.0</v>
+      </c>
+      <c r="L3" t="n" s="200">
+        <v>696.0</v>
+      </c>
+      <c r="M3" t="n" s="201">
+        <v>696.0</v>
+      </c>
+      <c r="N3" t="n" s="206">
+        <v>840.4</v>
+      </c>
+      <c r="O3" t="n" s="207">
+        <v>840.4</v>
+      </c>
+      <c r="P3" t="n" s="202">
+        <v>109.39999999999999</v>
+      </c>
+      <c r="Q3" t="n" s="203">
+        <v>109.39999999999999</v>
+      </c>
+      <c r="R3" t="n" s="204">
+        <v>96.0</v>
+      </c>
+      <c r="S3" t="n" s="205">
+        <v>96.0</v>
+      </c>
+      <c r="T3" t="n" s="208">
+        <v>200.0</v>
+      </c>
+      <c r="U3" t="n" s="209">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" customHeight="true">
+      <c r="A4" t="s" s="217">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="218">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="219">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="220">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="221">
+        <v>36</v>
+      </c>
+      <c r="F4" t="n" s="228">
+        <v>1.5</v>
+      </c>
+      <c r="G4" t="n" s="227">
+        <v>2.0</v>
+      </c>
+      <c r="H4" t="n" s="229">
+        <v>600.0</v>
+      </c>
+      <c r="I4" t="n" s="230">
+        <v>1200.0</v>
+      </c>
+      <c r="J4" t="n" s="231">
+        <v>900.0</v>
+      </c>
+      <c r="K4" t="n" s="232">
+        <v>1800.0</v>
+      </c>
+      <c r="L4" t="n" s="233">
+        <v>1044.0</v>
+      </c>
+      <c r="M4" t="n" s="234">
+        <v>2088.0</v>
+      </c>
+      <c r="N4" t="n" s="239">
+        <v>1240.6</v>
+      </c>
+      <c r="O4" t="n" s="240">
+        <v>2481.2</v>
+      </c>
+      <c r="P4" t="n" s="235">
         <v>161.6</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="182">
-        <f>SUM(S1:S2)</f>
-        <v>144</v>
-      </c>
-      <c r="T3" s="105"/>
-      <c r="U3" s="107"/>
+      <c r="Q4" t="n" s="236">
+        <v>323.2</v>
+      </c>
+      <c r="R4" t="n" s="237">
+        <v>144.0</v>
+      </c>
+      <c r="S4" t="n" s="238">
+        <v>288.0</v>
+      </c>
+      <c r="T4" t="n" s="241">
+        <v>300.0</v>
+      </c>
+      <c r="U4" t="n" s="242">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="87"/>
+      <c r="I5" t="n" s="243">
+        <f>SUM(I2:I3)</f>
+        <v>900.0</v>
+      </c>
+      <c r="J5" s="90"/>
+      <c r="K5" t="n" s="244">
+        <f>SUM(K2:K3)</f>
+        <v>1500.0</v>
+      </c>
+      <c r="L5" s="93"/>
+      <c r="M5" t="n" s="245">
+        <f>SUM(M2:M3)</f>
+        <v>1740.0</v>
+      </c>
+      <c r="N5" s="96"/>
+      <c r="O5" t="n" s="246">
+        <f>SUM(O2:O3)</f>
+        <v>2081.0</v>
+      </c>
+      <c r="P5" s="99"/>
+      <c r="Q5" t="n" s="247">
+        <f>SUM(Q2:Q3)</f>
+        <v>271.0</v>
+      </c>
+      <c r="R5" s="102"/>
+      <c r="S5" t="n" s="248">
+        <f>SUM(S2:S3)</f>
+        <v>240.0</v>
+      </c>
+      <c r="T5" s="105"/>
+      <c r="U5" t="n" s="249">
+        <f>SUM(U2:U3)</f>
+        <v>600.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A275F5-CAA0-4B90-943E-BB5653222C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A2E598-FF1B-4C78-8A1F-474BF00B6327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
+    <workbookView xWindow="2505" yWindow="1440" windowWidth="26055" windowHeight="14310" activeTab="3" xr2:uid="{1D1BD3BE-35FC-4A4F-A09F-E30FC69E5713}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja Base" sheetId="8" r:id="rId1"/>
     <sheet name="Bici Rojita" sheetId="9" r:id="rId2"/>
     <sheet name="Bici Azul" sheetId="10" r:id="rId3"/>
+    <sheet name="nuevecito" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
   <si>
     <t xml:space="preserve">     </t>
   </si>
@@ -154,35 +155,81 @@
     <t>Manubrio azul</t>
   </si>
   <si>
+    <t>Frenos Verdes</t>
+  </si>
+  <si>
+    <t>Frenos para frenar</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>MEDIO DE VENTA</t>
+  </si>
+  <si>
+    <t>DESTINO</t>
+  </si>
+  <si>
+    <t>FOLIO</t>
+  </si>
+  <si>
+    <t>pieza chingona</t>
+  </si>
+  <si>
+    <t>eewrew</t>
+  </si>
+  <si>
+    <t>17  agosto 20</t>
+  </si>
+  <si>
+    <t>Bici Rojita</t>
+  </si>
+  <si>
+    <t>10.032520325203253</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>Frenos Verdes</t>
-  </si>
-  <si>
-    <t>Frenos para frenar</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1200.0</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>asiento</t>
+  </si>
+  <si>
+    <t>chingon</t>
+  </si>
+  <si>
+    <t>nuevecito</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,#0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="250" x14ac:knownFonts="1">
+  <fonts count="414" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,254 +1336,1238 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -1703,8 +2734,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -1713,17 +2744,32 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="03DF7B"/>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1763,7 +2809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2086,7 +3132,7 @@
     <xf numFmtId="0" fontId="107" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="109" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2212,7 +3258,7 @@
     <xf numFmtId="0" fontId="149" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="150" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="151" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2230,7 +3276,7 @@
     <xf numFmtId="0" fontId="155" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="156" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="157" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2293,223 +3339,715 @@
     <xf numFmtId="0" fontId="176" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="195" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="196" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="197" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="198" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="199" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="200" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="201" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="202" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="203" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="204" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="205" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="206" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="207" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="208" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="209" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="210" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="211" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="212" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="213" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="214" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="215" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="216" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="228" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="229" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="230" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="231" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="232" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="233" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="234" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="235" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="236" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="237" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="238" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="239" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="240" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="241" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="242" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="243" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="244" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="245" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="246" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="247" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="248" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="249" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="177" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="183" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="184" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="185" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="186" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="187" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="188" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="189" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="190" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="191" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="192" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="193" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="194" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="195" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="196" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="197" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="204" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="205" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="206" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="207" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="208" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="209" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="210" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="211" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="212" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="213" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="214" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="215" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="216" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="217" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="218" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="219" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="220" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="221" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="222" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="223" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="224" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="225" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="226" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="228" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="230" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="232" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="234" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="236" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="238" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="240" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="242" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="244" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="246" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="248" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="250" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="252" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="254" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="256" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="258" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="260" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="262" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="264" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="266" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="268" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="270" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="272" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="274" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="275" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="277" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="278" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="280" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="281" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="283" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="284" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="286" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="287" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="289" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="290" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="292" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="293" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="295" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="296" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="298" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="299" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="301" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="302" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="304" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="305" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="307" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="308" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="310" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="311" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="313" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="314" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="316" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="317" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="319" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="320" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="322" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="323" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="325" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="326" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="328" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="329" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="331" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="332" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="334" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="335" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="337" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="338" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="340" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="341" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="343" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="344" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="357" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="358" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="359" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="360" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="361" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="362" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="363" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="364" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="365" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="366" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="367" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="368" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="369" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="370" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="371" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="372" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="373" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="374" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="375" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="376" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="377" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="378" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="391" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="3" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="393" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="394" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="395" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="396" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="397" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="398" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="399" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="400" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="401" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="402" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="403" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="404" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="405" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="406" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="407" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="408" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="409" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="410" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="411" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="412" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="413" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2535,7 +4073,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2835,9 +4373,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>21</v>
       </c>
@@ -2902,137 +4440,137 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="3" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="114">
         <v>1.2</v>
       </c>
-      <c r="G3" s="114">
+      <c r="G3" s="113">
         <v>2</v>
       </c>
-      <c r="H3" s="116">
+      <c r="H3" s="115">
         <v>2500</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="116">
         <v>5000</v>
       </c>
-      <c r="J3" s="118">
+      <c r="J3" s="117">
         <v>3000</v>
       </c>
-      <c r="K3" s="119">
+      <c r="K3" s="118">
         <v>6000</v>
       </c>
-      <c r="L3" s="120">
+      <c r="L3" s="119">
         <v>3479.9999999999995</v>
       </c>
-      <c r="M3" s="121">
+      <c r="M3" s="120">
         <v>6959.9999999999991</v>
       </c>
-      <c r="N3" s="126">
+      <c r="N3" s="125">
         <v>4042</v>
       </c>
-      <c r="O3" s="127">
+      <c r="O3" s="126">
         <v>8084</v>
       </c>
-      <c r="P3" s="122">
+      <c r="P3" s="121">
         <v>526.99999999999989</v>
       </c>
-      <c r="Q3" s="123">
+      <c r="Q3" s="122">
         <v>1053.9999999999998</v>
       </c>
-      <c r="R3" s="124">
+      <c r="R3" s="123">
         <v>480</v>
       </c>
-      <c r="S3" s="125">
+      <c r="S3" s="124">
         <v>960</v>
       </c>
-      <c r="T3" s="128">
+      <c r="T3" s="127">
         <v>499.99999999999955</v>
       </c>
-      <c r="U3" s="129">
+      <c r="U3" s="128">
         <v>999.99999999999909</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+    <row r="4" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="136">
+      <c r="F4" s="135">
         <v>1.8</v>
       </c>
-      <c r="G4" s="135">
+      <c r="G4" s="134">
         <v>5</v>
       </c>
-      <c r="H4" s="137">
+      <c r="H4" s="136">
         <v>500</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="137">
         <v>2500</v>
       </c>
-      <c r="J4" s="139">
+      <c r="J4" s="138">
         <v>900</v>
       </c>
-      <c r="K4" s="140">
+      <c r="K4" s="139">
         <v>4500</v>
       </c>
-      <c r="L4" s="141">
+      <c r="L4" s="140">
         <v>1044</v>
       </c>
-      <c r="M4" s="142">
+      <c r="M4" s="141">
         <v>5220</v>
       </c>
-      <c r="N4" s="147">
+      <c r="N4" s="146">
         <v>1240.5999999999999</v>
       </c>
-      <c r="O4" s="148">
+      <c r="O4" s="147">
         <v>6203</v>
       </c>
-      <c r="P4" s="143">
+      <c r="P4" s="142">
         <v>161.6</v>
       </c>
-      <c r="Q4" s="144">
+      <c r="Q4" s="143">
         <v>808</v>
       </c>
-      <c r="R4" s="145">
+      <c r="R4" s="144">
         <v>144</v>
       </c>
-      <c r="S4" s="146">
+      <c r="S4" s="145">
         <v>720</v>
       </c>
-      <c r="T4" s="149">
+      <c r="T4" s="148">
         <v>400</v>
       </c>
-      <c r="U4" s="150">
+      <c r="U4" s="149">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>21</v>
       </c>
@@ -3057,30 +4595,30 @@
       <c r="H5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="151" t="n">
+      <c r="I5" s="150" t="n">
         <f>SUM(I2:I3)</f>
         <v>8000.0</v>
       </c>
       <c r="J5" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="156" t="n">
+      <c r="K5" s="155" t="n">
         <f>SUM(U2:U3)</f>
         <v>2499.999999999999</v>
       </c>
-      <c r="M5" s="152" t="n">
+      <c r="M5" s="151" t="n">
         <f>SUM(M2:M3)</f>
         <v>12180.0</v>
       </c>
-      <c r="O5" s="153" t="n">
+      <c r="O5" s="152" t="n">
         <f>SUM(O2:O3)</f>
         <v>14287.0</v>
       </c>
-      <c r="Q5" s="154" t="n">
+      <c r="Q5" s="153" t="n">
         <f>SUM(Q2:Q3)</f>
         <v>1861.9999999999998</v>
       </c>
-      <c r="S5" s="155" t="n">
+      <c r="S5" s="154" t="n">
         <f>SUM(S2:S3)</f>
         <v>1680.0</v>
       </c>
@@ -3092,13 +4630,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3163,28 +4701,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="41"/>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="346">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="347">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s" s="348">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s" s="349">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="350">
+        <v>48</v>
+      </c>
+      <c r="F2" t="n" s="357">
+        <v>10.032520325203253</v>
+      </c>
+      <c r="G2" t="n" s="356">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="358">
+        <v>123.0</v>
+      </c>
+      <c r="I2" t="n" s="359">
+        <v>123.0</v>
+      </c>
+      <c r="J2" t="n" s="360">
+        <v>1234.0</v>
+      </c>
+      <c r="K2" t="n" s="361">
+        <v>1234.0</v>
+      </c>
+      <c r="L2" t="n" s="362">
+        <v>1431.4399999999998</v>
+      </c>
+      <c r="M2" t="n" s="363">
+        <v>1431.4399999999998</v>
+      </c>
+      <c r="N2" t="n" s="368">
+        <v>1686.156</v>
+      </c>
+      <c r="O2" t="n" s="369">
+        <v>1686.156</v>
+      </c>
+      <c r="P2" t="n" s="364">
+        <v>219.71599999999998</v>
+      </c>
+      <c r="Q2" t="n" s="365">
+        <v>219.71599999999998</v>
+      </c>
+      <c r="R2" t="n" s="366">
+        <v>197.44</v>
+      </c>
+      <c r="S2" t="n" s="367">
+        <v>197.44</v>
+      </c>
+      <c r="T2" t="n" s="370">
+        <v>1110.9999999999998</v>
+      </c>
+      <c r="U2" t="n" s="371">
+        <v>1110.9999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30.0" x14ac:dyDescent="0.25" customHeight="true">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" t="n" s="372">
+        <f>SUM(I1:I2)</f>
+        <v>123.0</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" t="n" s="373">
+        <f>SUM(K1:K2)</f>
+        <v>1234.0</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" t="n" s="374">
+        <f>SUM(M1:M2)</f>
+        <v>1431.4399999999998</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" t="n" s="375">
+        <f>SUM(O1:O2)</f>
+        <v>1686.156</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" t="n" s="376">
+        <f>SUM(Q1:Q2)</f>
+        <v>219.71599999999998</v>
+      </c>
+      <c r="R3" s="35"/>
+      <c r="S3" t="n" s="377">
+        <f>SUM(S1:S2)</f>
+        <v>197.44</v>
+      </c>
+      <c r="T3" s="39"/>
+      <c r="U3" t="n" s="378">
+        <f>SUM(U1:U2)</f>
+        <v>1110.9999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3195,21 +4819,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -3270,206 +4894,206 @@
       <c r="T1" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="108" t="s">
+      <c r="U1" s="107" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A2" s="157" t="s">
+    <row r="2" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="163">
+      <c r="F2" s="162">
         <v>1.8</v>
       </c>
-      <c r="G2" s="162">
+      <c r="G2" s="161">
         <v>1</v>
       </c>
-      <c r="H2" s="164">
+      <c r="H2" s="163">
         <v>500</v>
       </c>
-      <c r="I2" s="165">
+      <c r="I2" s="164">
         <v>500</v>
       </c>
-      <c r="J2" s="166">
+      <c r="J2" s="165">
         <v>900</v>
       </c>
-      <c r="K2" s="167">
+      <c r="K2" s="166">
         <v>900</v>
       </c>
-      <c r="L2" s="168">
+      <c r="L2" s="167">
         <v>1044</v>
       </c>
-      <c r="M2" s="169">
+      <c r="M2" s="168">
         <v>1044</v>
       </c>
-      <c r="N2" s="174">
+      <c r="N2" s="173">
         <v>1240.5999999999999</v>
       </c>
-      <c r="O2" s="175">
+      <c r="O2" s="174">
         <v>1240.5999999999999</v>
       </c>
-      <c r="P2" s="170">
+      <c r="P2" s="169">
         <v>161.6</v>
       </c>
-      <c r="Q2" s="171">
+      <c r="Q2" s="170">
         <v>161.6</v>
       </c>
-      <c r="R2" s="172">
+      <c r="R2" s="171">
         <v>144</v>
       </c>
-      <c r="S2" s="173">
+      <c r="S2" s="172">
         <v>144</v>
       </c>
-      <c r="T2" s="176">
+      <c r="T2" s="175">
         <v>400</v>
       </c>
-      <c r="U2" s="177">
+      <c r="U2" s="176">
         <v>400</v>
       </c>
     </row>
-    <row r="3" ht="28.8" customHeight="true">
-      <c r="A3" t="s" s="184">
+    <row r="3" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s" s="185">
+      <c r="B3" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s" s="186">
+      <c r="C3" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s" s="187">
+      <c r="D3" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s" s="188">
+      <c r="E3" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="n" s="195">
+      <c r="F3" s="183">
         <v>1.5</v>
       </c>
-      <c r="G3" t="n" s="194">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n" s="196">
-        <v>400.0</v>
-      </c>
-      <c r="I3" t="n" s="197">
-        <v>400.0</v>
-      </c>
-      <c r="J3" t="n" s="198">
-        <v>600.0</v>
-      </c>
-      <c r="K3" t="n" s="199">
-        <v>600.0</v>
-      </c>
-      <c r="L3" t="n" s="200">
-        <v>696.0</v>
-      </c>
-      <c r="M3" t="n" s="201">
-        <v>696.0</v>
-      </c>
-      <c r="N3" t="n" s="206">
+      <c r="G3" s="182">
+        <v>1</v>
+      </c>
+      <c r="H3" s="184">
+        <v>400</v>
+      </c>
+      <c r="I3" s="185">
+        <v>400</v>
+      </c>
+      <c r="J3" s="186">
+        <v>600</v>
+      </c>
+      <c r="K3" s="187">
+        <v>600</v>
+      </c>
+      <c r="L3" s="188">
+        <v>696</v>
+      </c>
+      <c r="M3" s="189">
+        <v>696</v>
+      </c>
+      <c r="N3" s="194">
         <v>840.4</v>
       </c>
-      <c r="O3" t="n" s="207">
+      <c r="O3" s="195">
         <v>840.4</v>
       </c>
-      <c r="P3" t="n" s="202">
+      <c r="P3" s="190">
         <v>109.39999999999999</v>
       </c>
-      <c r="Q3" t="n" s="203">
+      <c r="Q3" s="191">
         <v>109.39999999999999</v>
       </c>
-      <c r="R3" t="n" s="204">
-        <v>96.0</v>
-      </c>
-      <c r="S3" t="n" s="205">
-        <v>96.0</v>
-      </c>
-      <c r="T3" t="n" s="208">
-        <v>200.0</v>
-      </c>
-      <c r="U3" t="n" s="209">
-        <v>200.0</v>
+      <c r="R3" s="192">
+        <v>96</v>
+      </c>
+      <c r="S3" s="193">
+        <v>96</v>
+      </c>
+      <c r="T3" s="196">
+        <v>200</v>
+      </c>
+      <c r="U3" s="197">
+        <v>200</v>
       </c>
     </row>
-    <row r="4" ht="28.8" customHeight="true">
-      <c r="A4" t="s" s="217">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s" s="218">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s" s="219">
+    <row r="4" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="198" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="199" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s" s="220">
+      <c r="D4" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s" s="221">
+      <c r="E4" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="n" s="228">
+      <c r="F4" s="204">
         <v>1.5</v>
       </c>
-      <c r="G4" t="n" s="227">
-        <v>2.0</v>
-      </c>
-      <c r="H4" t="n" s="229">
-        <v>600.0</v>
-      </c>
-      <c r="I4" t="n" s="230">
-        <v>1200.0</v>
-      </c>
-      <c r="J4" t="n" s="231">
-        <v>900.0</v>
-      </c>
-      <c r="K4" t="n" s="232">
-        <v>1800.0</v>
-      </c>
-      <c r="L4" t="n" s="233">
-        <v>1044.0</v>
-      </c>
-      <c r="M4" t="n" s="234">
-        <v>2088.0</v>
-      </c>
-      <c r="N4" t="n" s="239">
-        <v>1240.6</v>
-      </c>
-      <c r="O4" t="n" s="240">
-        <v>2481.2</v>
-      </c>
-      <c r="P4" t="n" s="235">
+      <c r="G4" s="203">
+        <v>2</v>
+      </c>
+      <c r="H4" s="205">
+        <v>600</v>
+      </c>
+      <c r="I4" s="206">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="207">
+        <v>900</v>
+      </c>
+      <c r="K4" s="208">
+        <v>1800</v>
+      </c>
+      <c r="L4" s="209">
+        <v>1044</v>
+      </c>
+      <c r="M4" s="210">
+        <v>2088</v>
+      </c>
+      <c r="N4" s="215">
+        <v>1240.5999999999999</v>
+      </c>
+      <c r="O4" s="216">
+        <v>2481.1999999999998</v>
+      </c>
+      <c r="P4" s="211">
         <v>161.6</v>
       </c>
-      <c r="Q4" t="n" s="236">
+      <c r="Q4" s="212">
         <v>323.2</v>
       </c>
-      <c r="R4" t="n" s="237">
-        <v>144.0</v>
-      </c>
-      <c r="S4" t="n" s="238">
-        <v>288.0</v>
-      </c>
-      <c r="T4" t="n" s="241">
-        <v>300.0</v>
-      </c>
-      <c r="U4" t="n" s="242">
-        <v>600.0</v>
+      <c r="R4" s="213">
+        <v>144</v>
+      </c>
+      <c r="S4" s="214">
+        <v>288</v>
+      </c>
+      <c r="T4" s="217">
+        <v>300</v>
+      </c>
+      <c r="U4" s="218">
+        <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73"/>
       <c r="B5" s="75"/>
       <c r="C5" s="77"/>
@@ -3478,40 +5102,252 @@
       <c r="F5" s="83"/>
       <c r="G5" s="85"/>
       <c r="H5" s="87"/>
-      <c r="I5" t="n" s="243">
+      <c r="I5" s="219" t="n">
         <f>SUM(I2:I3)</f>
         <v>900.0</v>
       </c>
       <c r="J5" s="90"/>
-      <c r="K5" t="n" s="244">
+      <c r="K5" s="220" t="n">
         <f>SUM(K2:K3)</f>
         <v>1500.0</v>
       </c>
       <c r="L5" s="93"/>
-      <c r="M5" t="n" s="245">
+      <c r="M5" s="221" t="n">
         <f>SUM(M2:M3)</f>
         <v>1740.0</v>
       </c>
       <c r="N5" s="96"/>
-      <c r="O5" t="n" s="246">
+      <c r="O5" s="222" t="n">
         <f>SUM(O2:O3)</f>
         <v>2081.0</v>
       </c>
       <c r="P5" s="99"/>
-      <c r="Q5" t="n" s="247">
+      <c r="Q5" s="223" t="n">
         <f>SUM(Q2:Q3)</f>
         <v>271.0</v>
       </c>
       <c r="R5" s="102"/>
-      <c r="S5" t="n" s="248">
+      <c r="S5" s="224" t="n">
         <f>SUM(S2:S3)</f>
         <v>240.0</v>
       </c>
       <c r="T5" s="105"/>
-      <c r="U5" t="n" s="249">
+      <c r="U5" s="225" t="n">
         <f>SUM(U2:U3)</f>
         <v>600.0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="24" customWidth="true" width="19.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="229" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="231" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="233" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="235" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="237" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="239" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="241" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="243" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="245" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="247" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="249" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="251" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="253" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="255" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="257" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="259" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="261" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="263" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="265" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="267" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="269" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="271" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="273" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="379">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s" s="389">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s" s="381">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s" s="382">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="383">
+        <v>56</v>
+      </c>
+      <c r="F2" t="n" s="392">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n" s="390">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="393">
+        <v>100.0</v>
+      </c>
+      <c r="I2" t="n" s="394">
+        <v>100.0</v>
+      </c>
+      <c r="J2" t="n" s="395">
+        <v>200.0</v>
+      </c>
+      <c r="K2" t="n" s="396">
+        <v>200.0</v>
+      </c>
+      <c r="L2" t="n" s="397">
+        <v>231.99999999999997</v>
+      </c>
+      <c r="M2" t="n" s="398">
+        <v>231.99999999999997</v>
+      </c>
+      <c r="N2" t="n" s="403">
+        <v>306.8</v>
+      </c>
+      <c r="O2" t="n" s="404">
+        <v>306.8</v>
+      </c>
+      <c r="P2" t="n" s="399">
+        <v>39.8</v>
+      </c>
+      <c r="Q2" t="n" s="400">
+        <v>39.8</v>
+      </c>
+      <c r="R2" t="n" s="401">
+        <v>32.0</v>
+      </c>
+      <c r="S2" t="n" s="402">
+        <v>32.0</v>
+      </c>
+      <c r="T2" t="n" s="405">
+        <v>99.99999999999997</v>
+      </c>
+      <c r="U2" t="n" s="406">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="30.0" x14ac:dyDescent="0.25" customHeight="true">
+      <c r="A3" s="226"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="240"/>
+      <c r="I3" t="n" s="407">
+        <f>SUM(I2:I1)</f>
+        <v>100.0</v>
+      </c>
+      <c r="J3" s="244"/>
+      <c r="K3" t="n" s="408">
+        <f>SUM(K2:K1)</f>
+        <v>200.0</v>
+      </c>
+      <c r="L3" s="248"/>
+      <c r="M3" t="n" s="409">
+        <f>SUM(M2:M1)</f>
+        <v>231.99999999999997</v>
+      </c>
+      <c r="N3" s="252"/>
+      <c r="O3" t="n" s="410">
+        <f>SUM(O2:O1)</f>
+        <v>306.8</v>
+      </c>
+      <c r="P3" s="256"/>
+      <c r="Q3" t="n" s="411">
+        <f>SUM(Q2:Q1)</f>
+        <v>39.8</v>
+      </c>
+      <c r="R3" s="260"/>
+      <c r="S3" t="n" s="412">
+        <f>SUM(S2:S1)</f>
+        <v>32.0</v>
+      </c>
+      <c r="T3" s="264"/>
+      <c r="U3" t="n" s="413">
+        <f>SUM(U2:U1)</f>
+        <v>99.99999999999997</v>
+      </c>
+      <c r="V3" s="268"/>
+      <c r="W3" s="270"/>
+      <c r="X3" s="272"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -14,10 +14,12 @@
   </bookViews>
   <sheets>
     <sheet name="CULERIN" sheetId="16" r:id="rId1"/>
+    <sheet name="print" r:id="rId5" sheetId="17"/>
+    <sheet name="hann" r:id="rId6" sheetId="18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t xml:space="preserve">     </t>
   </si>
@@ -112,15 +114,43 @@
   <si>
     <t>VALOR DEL PACK</t>
   </si>
+  <si>
+    <t>olia</t>
+  </si>
+  <si>
+    <t>xdgdgdf</t>
+  </si>
+  <si>
+    <t>18  agosto 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>hann</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3.6809815950920246</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="301" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +662,1376 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,8 +2053,23 @@
         <fgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -679,11 +2092,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -899,6 +2330,690 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="72" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="73" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="75" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="77" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="79" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="81" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="83" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="85" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="87" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="89" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="91" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="93" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="95" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="97" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="99" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="101" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="103" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="105" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="107" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="109" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="111" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="113" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="115" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="117" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="119" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="121" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="123" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="125" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="127" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="129" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="131" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="133" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="135" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="137" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="139" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="141" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="143" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="145" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="147" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="149" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="151" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="153" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="155" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="157" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="159" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="161" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="163" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="165" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="167" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="169" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="170" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="171" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="173" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="175" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="177" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="179" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="181" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="183" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="185" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="187" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="189" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="191" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="193" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="195" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="197" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="199" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="201" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="203" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="205" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="207" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="209" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="211" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="213" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="215" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="217" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="219" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="221" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="223" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="225" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="227" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="229" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="231" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="233" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="235" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="237" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="239" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="241" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="243" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="245" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="247" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="249" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="251" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="253" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="255" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="257" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="259" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="261" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="263" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="265" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="4" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="267" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="269" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="270" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="271" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="285" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="2" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="287" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="288" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="289" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="290" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="291" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="292" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="293" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="294" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="295" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="296" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="297" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="298" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="299" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="300" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,8 +3341,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="58.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="24" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="58.5703125" collapsed="true"/>
+    <col min="3" max="24" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,4 +3482,419 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="160" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="74">
+        <v>24</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="166"/>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="75">
+        <v>25</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="91"/>
+      <c r="F3" t="n" s="172">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="99"/>
+      <c r="H3" s="103"/>
+      <c r="I3" t="n" s="169">
+        <v>100.0</v>
+      </c>
+      <c r="J3" s="111"/>
+      <c r="K3" t="n" s="170">
+        <v>200.0</v>
+      </c>
+      <c r="L3" s="119"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="167"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="188" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="192" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="200" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="204" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="212" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="216" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="224" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="228" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="232" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="236" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="240" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="244" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="248" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="252" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="256" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="260" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="264" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="268" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="174">
+        <v>24</v>
+      </c>
+      <c r="B2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="254"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="266"/>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="175">
+        <v>25</v>
+      </c>
+      <c r="B3" s="179"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="191"/>
+      <c r="F3" t="n" s="272">
+        <v>1.63</v>
+      </c>
+      <c r="G3" s="199"/>
+      <c r="H3" s="203"/>
+      <c r="I3" t="n" s="269">
+        <v>123.0</v>
+      </c>
+      <c r="J3" s="211"/>
+      <c r="K3" t="n" s="270">
+        <v>200.0</v>
+      </c>
+      <c r="L3" s="219"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="239"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="259"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="267"/>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" t="s" s="273">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="283">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="275">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="276">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n" s="286">
+        <v>1.63</v>
+      </c>
+      <c r="G4" t="n" s="284">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="287">
+        <v>6.0</v>
+      </c>
+      <c r="I4" t="n" s="288">
+        <v>3.6809815950920246</v>
+      </c>
+      <c r="J4" t="n" s="289">
+        <v>6.0</v>
+      </c>
+      <c r="K4" t="n" s="290">
+        <v>6.0</v>
+      </c>
+      <c r="L4" t="n" s="291">
+        <v>6.959999999999999</v>
+      </c>
+      <c r="M4" t="n" s="292">
+        <v>6.959999999999999</v>
+      </c>
+      <c r="N4" t="n" s="297">
+        <v>48.004</v>
+      </c>
+      <c r="O4" t="n" s="298">
+        <v>48.004</v>
+      </c>
+      <c r="P4" t="n" s="293">
+        <v>6.044</v>
+      </c>
+      <c r="Q4" t="n" s="294">
+        <v>6.044</v>
+      </c>
+      <c r="R4" t="n" s="295">
+        <v>0.96</v>
+      </c>
+      <c r="S4" t="n" s="296">
+        <v>0.96</v>
+      </c>
+      <c r="T4" t="n" s="299">
+        <v>-8.881784197001252E-16</v>
+      </c>
+      <c r="U4" t="n" s="300">
+        <v>-8.881784197001252E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -20,6 +20,7 @@
     <sheet name="clientes" r:id="rId8" sheetId="20"/>
     <sheet name="final" r:id="rId9" sheetId="21"/>
     <sheet name="indiv" r:id="rId10" sheetId="22"/>
+    <sheet name="CANNONDALE" r:id="rId11" sheetId="23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t xml:space="preserve">     </t>
   </si>
@@ -325,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1160" x14ac:knownFonts="1">
+  <fonts count="1246" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7212,6 +7213,522 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -7458,7 +7975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1160">
+  <cellXfs count="1246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10935,6 +11452,264 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1159" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1160" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1162" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1163" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1164" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1165" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1166" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1167" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1168" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1169" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1170" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1171" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1172" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1173" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1174" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1175" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1176" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1177" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1178" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1179" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1180" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1181" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1182" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1183" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1184" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1185" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1186" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1187" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1188" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1189" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1190" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1191" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1192" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1193" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1194" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1195" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1196" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1197" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1198" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1199" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1200" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1201" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1202" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1203" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1204" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1205" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1206" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1207" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1208" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1209" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1210" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1211" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1212" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1213" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1214" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1215" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1216" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1217" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1218" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1219" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1220" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1221" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1222" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1223" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1224" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1225" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1226" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1227" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1228" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1229" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1230" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1231" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1232" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1233" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1234" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1235" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1236" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1237" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1238" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1239" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1240" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1241" fillId="4" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1242" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1243" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1244" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1245" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13222,6 +13997,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="1163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1175" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1179" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1183" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1187" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1191" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1195" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1199" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1203" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1207" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1211" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1215" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1219" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1223" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1227" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1231" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1235" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1239" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1243" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="1161">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1165"/>
+      <c r="C2" s="1169"/>
+      <c r="D2" s="1173"/>
+      <c r="E2" s="1177"/>
+      <c r="F2" s="1181"/>
+      <c r="G2" s="1185"/>
+      <c r="H2" s="1189"/>
+      <c r="I2" s="1193"/>
+      <c r="J2" s="1197"/>
+      <c r="K2" s="1201"/>
+      <c r="L2" s="1205"/>
+      <c r="M2" s="1209"/>
+      <c r="N2" s="1213"/>
+      <c r="O2" s="1217"/>
+      <c r="P2" s="1221"/>
+      <c r="Q2" s="1225"/>
+      <c r="R2" s="1229"/>
+      <c r="S2" s="1233"/>
+      <c r="T2" s="1237"/>
+      <c r="U2" s="1241"/>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="1162">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1166"/>
+      <c r="C3" s="1170"/>
+      <c r="D3" s="1174"/>
+      <c r="E3" s="1178"/>
+      <c r="F3" s="1182"/>
+      <c r="G3" s="1186"/>
+      <c r="H3" s="1190"/>
+      <c r="I3" t="n" s="1244">
+        <v>5000.0</v>
+      </c>
+      <c r="J3" s="1198"/>
+      <c r="K3" t="n" s="1245">
+        <v>8000.0</v>
+      </c>
+      <c r="L3" s="1206"/>
+      <c r="M3" s="1210"/>
+      <c r="N3" s="1214"/>
+      <c r="O3" s="1218"/>
+      <c r="P3" s="1222"/>
+      <c r="Q3" s="1226"/>
+      <c r="R3" s="1230"/>
+      <c r="S3" s="1234"/>
+      <c r="T3" s="1238"/>
+      <c r="U3" s="1242"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X5"/>

--- a/JavaApplication19/src/excel/Packs.xlsx
+++ b/JavaApplication19/src/excel/Packs.xlsx
@@ -15,6 +15,7 @@
   <sheets>
     <sheet name="CANNONDALE" sheetId="23" r:id="rId1"/>
     <sheet name="KONA" r:id="rId5" sheetId="24"/>
+    <sheet name="PACKETAXO2" r:id="rId6" sheetId="25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t xml:space="preserve">     </t>
   </si>
@@ -131,6 +132,30 @@
   <si>
     <t>300</t>
   </si>
+  <si>
+    <t>POLIN</t>
+  </si>
+  <si>
+    <t>NSDSLD</t>
+  </si>
+  <si>
+    <t>21  agosto 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>PACKETAXO2</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="310" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +550,744 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1348,7 +2111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1906,6 +2669,375 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="186" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="3" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="271" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="272" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="273" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="287" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="289" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="290" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="291" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="292" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="293" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="294" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="295" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="296" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="297" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="298" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="299" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="300" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="301" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="302" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="303" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="304" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="305" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="306" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="307" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="308" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="309" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2604,4 +3736,247 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="202" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="206" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="210" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="214" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="218" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="222" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="226" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="230" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="234" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="242" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="246" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="250" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="254" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="258" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="262" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="266" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="270" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="275">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="285">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="277">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s" s="278">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="279">
+        <v>36</v>
+      </c>
+      <c r="F2" t="n" s="288">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n" s="286">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="289">
+        <v>62.5</v>
+      </c>
+      <c r="I2" t="n" s="290">
+        <v>62.5</v>
+      </c>
+      <c r="J2" t="n" s="291">
+        <v>125.0</v>
+      </c>
+      <c r="K2" t="n" s="292">
+        <v>125.0</v>
+      </c>
+      <c r="L2" t="n" s="293">
+        <v>145.0</v>
+      </c>
+      <c r="M2" t="n" s="294">
+        <v>145.0</v>
+      </c>
+      <c r="N2" t="n" s="299">
+        <v>206.75</v>
+      </c>
+      <c r="O2" t="n" s="300">
+        <v>206.75</v>
+      </c>
+      <c r="P2" t="n" s="295">
+        <v>26.75</v>
+      </c>
+      <c r="Q2" t="n" s="296">
+        <v>26.75</v>
+      </c>
+      <c r="R2" t="n" s="297">
+        <v>20.0</v>
+      </c>
+      <c r="S2" t="n" s="298">
+        <v>20.0</v>
+      </c>
+      <c r="T2" t="n" s="301">
+        <v>62.5</v>
+      </c>
+      <c r="U2" t="n" s="302">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="188">
+        <v>21</v>
+      </c>
+      <c r="B3" s="192"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="216"/>
+      <c r="I3" t="n" s="303">
+        <f>SUM(I2:I2)</f>
+        <v>62.5</v>
+      </c>
+      <c r="J3" s="224"/>
+      <c r="K3" t="n" s="304">
+        <f>SUM(K2:K2)</f>
+        <v>125.0</v>
+      </c>
+      <c r="L3" s="232"/>
+      <c r="M3" t="n" s="305">
+        <f>SUM(M2:M2)</f>
+        <v>145.0</v>
+      </c>
+      <c r="N3" s="240"/>
+      <c r="O3" t="n" s="306">
+        <f>SUM(O2:O2)</f>
+        <v>206.75</v>
+      </c>
+      <c r="P3" s="248"/>
+      <c r="Q3" t="n" s="307">
+        <f>SUM(Q2:Q2)</f>
+        <v>26.75</v>
+      </c>
+      <c r="R3" s="256"/>
+      <c r="S3" t="n" s="308">
+        <f>SUM(S2:S2)</f>
+        <v>20.0</v>
+      </c>
+      <c r="T3" s="264"/>
+      <c r="U3" t="n" s="309">
+        <f>SUM(U2:U2)</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" t="s" s="189">
+        <v>22</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="205"/>
+      <c r="F4" t="n" s="274">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="213"/>
+      <c r="H4" s="217"/>
+      <c r="I4" t="n" s="271">
+        <v>100.0</v>
+      </c>
+      <c r="J4" s="225"/>
+      <c r="K4" t="n" s="272">
+        <v>200.0</v>
+      </c>
+      <c r="L4" s="233"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="253"/>
+      <c r="R4" s="257"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="265"/>
+      <c r="U4" s="269"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>